--- a/q_br.xlsx
+++ b/q_br.xlsx
@@ -12,9 +12,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6">
   <si>
     <t>thisQuestion</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
   <si>
     <r>
@@ -84,7 +87,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -92,6 +95,11 @@
     </font>
     <font>
       <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="13"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
@@ -117,7 +125,7 @@
       <name val="Times"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -136,6 +144,12 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="8">
     <border>
@@ -263,34 +277,34 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -314,6 +328,7 @@
       <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ff3f3f3f"/>
       <rgbColor rgb="ffdbdbdb"/>
+      <rgbColor rgb="ffffffff"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -330,10 +345,10 @@
         <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="5E5E5E"/>
+        <a:srgbClr val="A7A7A7"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="D5D5D5"/>
+        <a:srgbClr val="535353"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="00A2FF"/>
@@ -510,11 +525,14 @@
     <a:spDef>
       <a:spPr>
         <a:solidFill>
-          <a:schemeClr val="accent1"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
-          <a:noFill/>
-          <a:miter lim="400000"/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -523,27 +541,27 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
@@ -800,10 +818,10 @@
         <a:noFill/>
         <a:ln w="25400" cap="flat">
           <a:solidFill>
-            <a:srgbClr val="000000"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="400000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -1094,7 +1112,7 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -1375,11 +1393,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozen"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
@@ -1398,7 +1414,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" ht="61.55" customHeight="1">
+    <row r="2" ht="20.25" customHeight="1">
       <c r="A2" t="s" s="4">
         <v>1</v>
       </c>
@@ -1409,7 +1425,7 @@
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
     </row>
-    <row r="3" ht="66.35" customHeight="1">
+    <row r="3" ht="61.35" customHeight="1">
       <c r="A3" t="s" s="7">
         <v>2</v>
       </c>
@@ -1420,8 +1436,8 @@
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
     </row>
-    <row r="4" ht="30.35" customHeight="1">
-      <c r="A4" t="s" s="10">
+    <row r="4" ht="66.35" customHeight="1">
+      <c r="A4" t="s" s="7">
         <v>3</v>
       </c>
       <c r="B4" s="8"/>
@@ -1431,8 +1447,8 @@
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
     </row>
-    <row r="5" ht="55.35" customHeight="1">
-      <c r="A5" t="s" s="7">
+    <row r="5" ht="30.35" customHeight="1">
+      <c r="A5" t="s" s="10">
         <v>4</v>
       </c>
       <c r="B5" s="8"/>
@@ -1442,8 +1458,10 @@
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
     </row>
-    <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" s="11"/>
+    <row r="6" ht="55.35" customHeight="1">
+      <c r="A6" t="s" s="7">
+        <v>5</v>
+      </c>
       <c r="B6" s="8"/>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
@@ -1595,6 +1613,15 @@
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
     </row>
+    <row r="23" ht="20.05" customHeight="1">
+      <c r="A23" s="11"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+    </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
